--- a/public/img/multa/plantilla/multa.xlsx
+++ b/public/img/multa/plantilla/multa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos laravel\sigcap\public\img\multa\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87ED80-64CC-4A24-BF9A-9EADB5041230}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7ACAF96F-FB5E-4AE7-9328-D7EA13FB11E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>PERIODO (DIA- MES- AÑO)</t>
-  </si>
-  <si>
     <t>CONCEPTO(MULTA POR MIEMBRO DE MESA / MULTA POR NO CUMPLIR VOTAR</t>
   </si>
   <si>
@@ -38,11 +34,14 @@
   <si>
     <t>ESTADO(1=VIGENTE,2=EXONERADO)</t>
   </si>
+  <si>
+    <t>PERIODO (AÑO)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,35 +426,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D40CB-0856-42F2-8066-9E21028273D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1070</v>
       </c>
@@ -469,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3033</v>
       </c>
@@ -483,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2127</v>
       </c>
